--- a/src/main/webapp/WEB-INF/doc/Casos de testes.xlsx
+++ b/src/main/webapp/WEB-INF/doc/Casos de testes.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <workbookPr/>
   <bookViews>
-    <workbookView xWindow="360" yWindow="15" windowWidth="20955" windowHeight="9720" activeTab="2"/>
+    <workbookView xWindow="360" yWindow="15" windowWidth="20955" windowHeight="9720" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="Requisitos funcionais" sheetId="1" state="visible" r:id="rId1"/>
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="152" uniqueCount="152">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="160" uniqueCount="160">
   <si>
     <t>Rastreabilidade</t>
   </si>
@@ -473,13 +473,37 @@
   </si>
   <si>
     <t xml:space="preserve">valor menor ou igual a zero; mais de 7 dígitos; conjunto vazio</t>
+  </si>
+  <si>
+    <t>título</t>
+  </si>
+  <si>
+    <t>descrição</t>
+  </si>
+  <si>
+    <t>gênero</t>
+  </si>
+  <si>
+    <t>autor</t>
+  </si>
+  <si>
+    <t>preço</t>
+  </si>
+  <si>
+    <t xml:space="preserve">data publi</t>
+  </si>
+  <si>
+    <t xml:space="preserve">número páginas</t>
+  </si>
+  <si>
+    <t>estoque</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="6">
+  <fonts count="7">
     <font>
       <sz val="11.000000"/>
       <color theme="1"/>
@@ -510,6 +534,13 @@
     </font>
     <font>
       <u/>
+      <sz val="11.000000"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11.000000"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -581,7 +612,7 @@
   <cellStyleXfs count="1">
     <xf fontId="0" fillId="0" borderId="0" numFmtId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellStyleXfs>
-  <cellXfs count="26">
+  <cellXfs count="28">
     <xf fontId="0" fillId="0" borderId="0" numFmtId="0" xfId="0"/>
     <xf fontId="1" fillId="2" borderId="1" numFmtId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
@@ -654,6 +685,12 @@
       <alignment vertical="center"/>
     </xf>
     <xf fontId="0" fillId="0" borderId="0" numFmtId="49" xfId="0" applyNumberFormat="1"/>
+    <xf fontId="0" fillId="0" borderId="1" numFmtId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf fontId="6" fillId="0" borderId="0" numFmtId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -2186,7 +2223,85 @@
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
-  <sheetData/>
+  <cols>
+    <col customWidth="1" min="1" max="1" width="17.7109375"/>
+    <col customWidth="1" min="2" max="2" width="50.57421875"/>
+    <col customWidth="1" min="3" max="3" width="64.7109375"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="24" t="s">
+        <v>152</v>
+      </c>
+      <c r="B2" s="24"/>
+      <c r="C2" s="24"/>
+    </row>
+    <row r="3">
+      <c r="A3" s="26" t="s">
+        <v>153</v>
+      </c>
+      <c r="B3" s="26"/>
+      <c r="C3" s="26"/>
+    </row>
+    <row r="4">
+      <c r="A4" s="24" t="s">
+        <v>154</v>
+      </c>
+      <c r="B4" s="24"/>
+      <c r="C4" s="24"/>
+    </row>
+    <row r="5">
+      <c r="A5" s="26" t="s">
+        <v>155</v>
+      </c>
+      <c r="B5" s="26"/>
+      <c r="C5" s="26"/>
+    </row>
+    <row r="6">
+      <c r="A6" s="24" t="s">
+        <v>156</v>
+      </c>
+      <c r="B6" s="24"/>
+      <c r="C6" s="24"/>
+      <c r="P6" s="27"/>
+    </row>
+    <row r="7">
+      <c r="A7" s="26" t="s">
+        <v>157</v>
+      </c>
+      <c r="B7" s="26"/>
+      <c r="C7" s="26"/>
+    </row>
+    <row r="8">
+      <c r="A8" s="24" t="s">
+        <v>158</v>
+      </c>
+      <c r="B8" s="24"/>
+      <c r="C8" s="24"/>
+    </row>
+    <row r="9">
+      <c r="A9" s="26" t="s">
+        <v>159</v>
+      </c>
+      <c r="B9" s="26"/>
+      <c r="C9" s="26"/>
+    </row>
+    <row r="10"/>
+    <row r="16"/>
+    <row r="17"/>
+    <row r="18"/>
+  </sheetData>
   <printOptions headings="0" gridLines="0"/>
   <pageMargins left="0.70078740157480324" right="0.70078740157480324" top="0.75196850393700787" bottom="0.75196850393700787" header="0.29999999999999999" footer="0.29999999999999999"/>
   <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="1" blackAndWhite="0" draft="0" cellComments="none" useFirstPageNumber="0" errors="displayed" horizontalDpi="600" verticalDpi="600" copies="1"/>
